--- a/test_Cases.xlsx
+++ b/test_Cases.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abcd\ecommerce-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dsthakur\Desktop\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2E32EF-0FB9-47F7-BEC1-623A76F3DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B06F17-0DE7-4BE6-8711-4E893A21983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DEAA417A-FC87-4E81-B49F-4DB073B0D850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{DEAA417A-FC87-4E81-B49F-4DB073B0D850}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Automation Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -128,6 +129,54 @@
   </si>
   <si>
     <t>Automates the steps to view the list of products, view product details, add a product to the cart, and complete the checkout process.</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Bug Title</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Category Navigation Bug</t>
+  </si>
+  <si>
+    <t>In the 'Phones' category, clicking the 'Next' or 'Previous' buttons at the footer sometimes displays laptops instead of phones.</t>
+  </si>
+  <si>
+    <t>The 'Next' and 'Previous' buttons should only display products within the selected category.</t>
+  </si>
+  <si>
+    <t>Category Selection Highlight</t>
+  </si>
+  <si>
+    <t>When selecting a category (e.g., 'Phones'), there is no visual indication (highlight) that the category is selected.</t>
+  </si>
+  <si>
+    <t>The selected category should be visually highlighted to indicate active selection.</t>
+  </si>
+  <si>
+    <t>Input Validation Bug on Order Placement</t>
+  </si>
+  <si>
+    <t>The website allows string values to be entered in the card number, expiration month, and expiration year fields during the order placement process.</t>
+  </si>
+  <si>
+    <t>These fields should only accept numeric values and should validate the input to prevent invalid data submission.</t>
+  </si>
+  <si>
+    <t>Order Placement with Empty Cart</t>
+  </si>
+  <si>
+    <t>The website allows an order to be placed even when the cart is empty.</t>
+  </si>
+  <si>
+    <t>The order placement process should be blocked if the cart is empty, and a warning or error message should be shown.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -538,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
@@ -546,7 +595,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
@@ -554,7 +603,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
@@ -562,7 +611,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -576,7 +625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
@@ -584,7 +633,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -598,7 +647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
@@ -606,7 +655,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -620,7 +669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
@@ -628,7 +677,7 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -636,7 +685,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -646,18 +695,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E329B0-F2EE-450E-B0E4-8AA5C6ADBD09}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,4 +752,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CBB9DC-CB47-4365-BC99-72B30FA53BEF}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>